--- a/natmiOut/OldD2/LR-pairs_lrc2p/Grn-Sort1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Grn-Sort1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>42.2664917151386</v>
+        <v>42.33019849999999</v>
       </c>
       <c r="H2">
-        <v>42.2664917151386</v>
+        <v>84.66039699999999</v>
       </c>
       <c r="I2">
-        <v>0.04056785794165896</v>
+        <v>0.03880108177208133</v>
       </c>
       <c r="J2">
-        <v>0.04056785794165896</v>
+        <v>0.02631398137952337</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.461407530318915</v>
+        <v>0.500046</v>
       </c>
       <c r="N2">
-        <v>0.461407530318915</v>
+        <v>1.000092</v>
       </c>
       <c r="O2">
-        <v>0.01953304342673219</v>
+        <v>0.02009953378395692</v>
       </c>
       <c r="P2">
-        <v>0.01953304342673219</v>
+        <v>0.01521121714331422</v>
       </c>
       <c r="Q2">
-        <v>19.50207755752698</v>
+        <v>21.167046439131</v>
       </c>
       <c r="R2">
-        <v>19.50207755752698</v>
+        <v>84.66818575652398</v>
       </c>
       <c r="S2">
-        <v>0.0007924137309039267</v>
+        <v>0.0007798836539320239</v>
       </c>
       <c r="T2">
-        <v>0.0007924137309039267</v>
+        <v>0.000400267684669057</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>42.2664917151386</v>
+        <v>42.33019849999999</v>
       </c>
       <c r="H3">
-        <v>42.2664917151386</v>
+        <v>84.66039699999999</v>
       </c>
       <c r="I3">
-        <v>0.04056785794165896</v>
+        <v>0.03880108177208133</v>
       </c>
       <c r="J3">
-        <v>0.04056785794165896</v>
+        <v>0.02631398137952337</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.654092394347995</v>
+        <v>0.821983</v>
       </c>
       <c r="N3">
-        <v>0.654092394347995</v>
+        <v>2.465949</v>
       </c>
       <c r="O3">
-        <v>0.02769008805526827</v>
+        <v>0.03303991048491191</v>
       </c>
       <c r="P3">
-        <v>0.02769008805526827</v>
+        <v>0.03750663509291002</v>
       </c>
       <c r="Q3">
-        <v>27.6461907666447</v>
+        <v>34.7947035536255</v>
       </c>
       <c r="R3">
-        <v>27.6461907666447</v>
+        <v>208.768221321753</v>
       </c>
       <c r="S3">
-        <v>0.001123327558618151</v>
+        <v>0.001281984268467314</v>
       </c>
       <c r="T3">
-        <v>0.001123327558618151</v>
+        <v>0.0009869488974434118</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>42.2664917151386</v>
+        <v>42.33019849999999</v>
       </c>
       <c r="H4">
-        <v>42.2664917151386</v>
+        <v>84.66039699999999</v>
       </c>
       <c r="I4">
-        <v>0.04056785794165896</v>
+        <v>0.03880108177208133</v>
       </c>
       <c r="J4">
-        <v>0.04056785794165896</v>
+        <v>0.02631398137952337</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.8291232923892</v>
+        <v>7.086962666666667</v>
       </c>
       <c r="N4">
-        <v>6.8291232923892</v>
+        <v>21.260888</v>
       </c>
       <c r="O4">
-        <v>0.2891013975098061</v>
+        <v>0.2848630836849173</v>
       </c>
       <c r="P4">
-        <v>0.2891013975098061</v>
+        <v>0.3233742335981926</v>
       </c>
       <c r="Q4">
-        <v>288.6430830594281</v>
+        <v>299.9925364420893</v>
       </c>
       <c r="R4">
-        <v>288.6430830594281</v>
+        <v>1799.955218652536</v>
       </c>
       <c r="S4">
-        <v>0.01172822442491289</v>
+        <v>0.01105299580390572</v>
       </c>
       <c r="T4">
-        <v>0.01172822442491289</v>
+        <v>0.008509263561520479</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>42.2664917151386</v>
+        <v>42.33019849999999</v>
       </c>
       <c r="H5">
-        <v>42.2664917151386</v>
+        <v>84.66039699999999</v>
       </c>
       <c r="I5">
-        <v>0.04056785794165896</v>
+        <v>0.03880108177208133</v>
       </c>
       <c r="J5">
-        <v>0.04056785794165896</v>
+        <v>0.02631398137952337</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.33955543897952</v>
+        <v>6.510773</v>
       </c>
       <c r="N5">
-        <v>6.33955543897952</v>
+        <v>19.532319</v>
       </c>
       <c r="O5">
-        <v>0.2683762261317538</v>
+        <v>0.2617029270770581</v>
       </c>
       <c r="P5">
-        <v>0.2683762261317538</v>
+        <v>0.2970830139841956</v>
       </c>
       <c r="Q5">
-        <v>267.9507674392897</v>
+        <v>275.6023134784405</v>
       </c>
       <c r="R5">
-        <v>267.9507674392897</v>
+        <v>1653.613880870643</v>
       </c>
       <c r="S5">
-        <v>0.01088744861663153</v>
+        <v>0.01015435667350997</v>
       </c>
       <c r="T5">
-        <v>0.01088744861663153</v>
+        <v>0.007817436898152803</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>42.2664917151386</v>
+        <v>42.33019849999999</v>
       </c>
       <c r="H6">
-        <v>42.2664917151386</v>
+        <v>84.66039699999999</v>
       </c>
       <c r="I6">
-        <v>0.04056785794165896</v>
+        <v>0.03880108177208133</v>
       </c>
       <c r="J6">
-        <v>0.04056785794165896</v>
+        <v>0.02631398137952337</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.960635674751374</v>
+        <v>1.570313333333333</v>
       </c>
       <c r="N6">
-        <v>0.960635674751374</v>
+        <v>4.71094</v>
       </c>
       <c r="O6">
-        <v>0.04066716973435044</v>
+        <v>0.06311932481158002</v>
       </c>
       <c r="P6">
-        <v>0.04066716973435044</v>
+        <v>0.07165253925551318</v>
       </c>
       <c r="Q6">
-        <v>40.60269978814553</v>
+        <v>66.47167510719666</v>
       </c>
       <c r="R6">
-        <v>40.60269978814553</v>
+        <v>398.83005064318</v>
       </c>
       <c r="S6">
-        <v>0.001649779964672462</v>
+        <v>0.002449098083412678</v>
       </c>
       <c r="T6">
-        <v>0.001649779964672462</v>
+        <v>0.001885463583765141</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.2664917151386</v>
+        <v>42.33019849999999</v>
       </c>
       <c r="H7">
-        <v>42.2664917151386</v>
+        <v>84.66039699999999</v>
       </c>
       <c r="I7">
-        <v>0.04056785794165896</v>
+        <v>0.03880108177208133</v>
       </c>
       <c r="J7">
-        <v>0.04056785794165896</v>
+        <v>0.02631398137952337</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.377082177539499</v>
+        <v>8.3884095</v>
       </c>
       <c r="N7">
-        <v>8.377082177539499</v>
+        <v>16.776819</v>
       </c>
       <c r="O7">
-        <v>0.3546320751420892</v>
+        <v>0.3371752201575759</v>
       </c>
       <c r="P7">
-        <v>0.3546320751420892</v>
+        <v>0.2551723609258745</v>
       </c>
       <c r="Q7">
-        <v>354.0698744540085</v>
+        <v>355.0830392342857</v>
       </c>
       <c r="R7">
-        <v>354.0698744540085</v>
+        <v>1420.332156937143</v>
       </c>
       <c r="S7">
-        <v>0.01438666364592</v>
+        <v>0.01308276328885363</v>
       </c>
       <c r="T7">
-        <v>0.01438666364592</v>
+        <v>0.006714600753972478</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.4038278188986</v>
+        <v>27.92162266666667</v>
       </c>
       <c r="H8">
-        <v>26.4038278188986</v>
+        <v>83.76486800000001</v>
       </c>
       <c r="I8">
-        <v>0.02534269329217708</v>
+        <v>0.0255937652713472</v>
       </c>
       <c r="J8">
-        <v>0.02534269329217708</v>
+        <v>0.02603563478222566</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.461407530318915</v>
+        <v>0.500046</v>
       </c>
       <c r="N8">
-        <v>0.461407530318915</v>
+        <v>1.000092</v>
       </c>
       <c r="O8">
-        <v>0.01953304342673219</v>
+        <v>0.02009953378395692</v>
       </c>
       <c r="P8">
-        <v>0.01953304342673219</v>
+        <v>0.01521121714331422</v>
       </c>
       <c r="Q8">
-        <v>12.18292498488387</v>
+        <v>13.962095727976</v>
       </c>
       <c r="R8">
-        <v>12.18292498488387</v>
+        <v>83.77257436785601</v>
       </c>
       <c r="S8">
-        <v>0.0004950199286264495</v>
+        <v>0.0005144227497301064</v>
       </c>
       <c r="T8">
-        <v>0.0004950199286264495</v>
+        <v>0.000396033694136459</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.4038278188986</v>
+        <v>27.92162266666667</v>
       </c>
       <c r="H9">
-        <v>26.4038278188986</v>
+        <v>83.76486800000001</v>
       </c>
       <c r="I9">
-        <v>0.02534269329217708</v>
+        <v>0.0255937652713472</v>
       </c>
       <c r="J9">
-        <v>0.02534269329217708</v>
+        <v>0.02603563478222566</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.654092394347995</v>
+        <v>0.821983</v>
       </c>
       <c r="N9">
-        <v>0.654092394347995</v>
+        <v>2.465949</v>
       </c>
       <c r="O9">
-        <v>0.02769008805526827</v>
+        <v>0.03303991048491191</v>
       </c>
       <c r="P9">
-        <v>0.02769008805526827</v>
+        <v>0.03750663509291002</v>
       </c>
       <c r="Q9">
-        <v>17.27054295801558</v>
+        <v>22.95109916441467</v>
       </c>
       <c r="R9">
-        <v>17.27054295801558</v>
+        <v>206.559892479732</v>
       </c>
       <c r="S9">
-        <v>0.0007017414088180401</v>
+        <v>0.0008456157135371587</v>
       </c>
       <c r="T9">
-        <v>0.0007017414088180401</v>
+        <v>0.0009765090531892136</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.4038278188986</v>
+        <v>27.92162266666667</v>
       </c>
       <c r="H10">
-        <v>26.4038278188986</v>
+        <v>83.76486800000001</v>
       </c>
       <c r="I10">
-        <v>0.02534269329217708</v>
+        <v>0.0255937652713472</v>
       </c>
       <c r="J10">
-        <v>0.02534269329217708</v>
+        <v>0.02603563478222566</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.8291232923892</v>
+        <v>7.086962666666667</v>
       </c>
       <c r="N10">
-        <v>6.8291232923892</v>
+        <v>21.260888</v>
       </c>
       <c r="O10">
-        <v>0.2891013975098061</v>
+        <v>0.2848630836849173</v>
       </c>
       <c r="P10">
-        <v>0.2891013975098061</v>
+        <v>0.3233742335981926</v>
       </c>
       <c r="Q10">
-        <v>180.3149955662743</v>
+        <v>197.8794974314205</v>
       </c>
       <c r="R10">
-        <v>180.3149955662743</v>
+        <v>1780.915476882784</v>
       </c>
       <c r="S10">
-        <v>0.007326608047430783</v>
+        <v>0.007290718898303905</v>
       </c>
       <c r="T10">
-        <v>0.007326608047430783</v>
+        <v>0.008419253443944669</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>26.4038278188986</v>
+        <v>27.92162266666667</v>
       </c>
       <c r="H11">
-        <v>26.4038278188986</v>
+        <v>83.76486800000001</v>
       </c>
       <c r="I11">
-        <v>0.02534269329217708</v>
+        <v>0.0255937652713472</v>
       </c>
       <c r="J11">
-        <v>0.02534269329217708</v>
+        <v>0.02603563478222566</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.33955543897952</v>
+        <v>6.510773</v>
       </c>
       <c r="N11">
-        <v>6.33955543897952</v>
+        <v>19.532319</v>
       </c>
       <c r="O11">
-        <v>0.2683762261317538</v>
+        <v>0.2617029270770581</v>
       </c>
       <c r="P11">
-        <v>0.2683762261317538</v>
+        <v>0.2970830139841956</v>
       </c>
       <c r="Q11">
-        <v>167.3885302591774</v>
+        <v>181.7913469743214</v>
       </c>
       <c r="R11">
-        <v>167.3885302591774</v>
+        <v>1636.122122768892</v>
       </c>
       <c r="S11">
-        <v>0.006801376385768998</v>
+        <v>0.006697963286434717</v>
       </c>
       <c r="T11">
-        <v>0.006801376385768998</v>
+        <v>0.007734744852095354</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.4038278188986</v>
+        <v>27.92162266666667</v>
       </c>
       <c r="H12">
-        <v>26.4038278188986</v>
+        <v>83.76486800000001</v>
       </c>
       <c r="I12">
-        <v>0.02534269329217708</v>
+        <v>0.0255937652713472</v>
       </c>
       <c r="J12">
-        <v>0.02534269329217708</v>
+        <v>0.02603563478222566</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.960635674751374</v>
+        <v>1.570313333333333</v>
       </c>
       <c r="N12">
-        <v>0.960635674751374</v>
+        <v>4.71094</v>
       </c>
       <c r="O12">
-        <v>0.04066716973435044</v>
+        <v>0.06311932481158002</v>
       </c>
       <c r="P12">
-        <v>0.04066716973435044</v>
+        <v>0.07165253925551318</v>
       </c>
       <c r="Q12">
-        <v>25.36445895282676</v>
+        <v>43.84569636176889</v>
       </c>
       <c r="R12">
-        <v>25.36445895282676</v>
+        <v>394.61126725592</v>
       </c>
       <c r="S12">
-        <v>0.00103061560963855</v>
+        <v>0.0016154611833135</v>
       </c>
       <c r="T12">
-        <v>0.00103061560963855</v>
+        <v>0.001865519343275629</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>26.4038278188986</v>
+        <v>27.92162266666667</v>
       </c>
       <c r="H13">
-        <v>26.4038278188986</v>
+        <v>83.76486800000001</v>
       </c>
       <c r="I13">
-        <v>0.02534269329217708</v>
+        <v>0.0255937652713472</v>
       </c>
       <c r="J13">
-        <v>0.02534269329217708</v>
+        <v>0.02603563478222566</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.377082177539499</v>
+        <v>8.3884095</v>
       </c>
       <c r="N13">
-        <v>8.377082177539499</v>
+        <v>16.776819</v>
       </c>
       <c r="O13">
-        <v>0.3546320751420892</v>
+        <v>0.3371752201575759</v>
       </c>
       <c r="P13">
-        <v>0.3546320751420892</v>
+        <v>0.2551723609258745</v>
       </c>
       <c r="Q13">
-        <v>221.1870354405171</v>
+        <v>234.218004832482</v>
       </c>
       <c r="R13">
-        <v>221.1870354405171</v>
+        <v>1405.308028994892</v>
       </c>
       <c r="S13">
-        <v>0.008987331911894264</v>
+        <v>0.008629583440027811</v>
       </c>
       <c r="T13">
-        <v>0.008987331911894264</v>
+        <v>0.006643574395584339</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>422.558507673217</v>
+        <v>441.022868</v>
       </c>
       <c r="H14">
-        <v>422.558507673217</v>
+        <v>1323.068604</v>
       </c>
       <c r="I14">
-        <v>0.4055764463930328</v>
+        <v>0.4042542905775846</v>
       </c>
       <c r="J14">
-        <v>0.4055764463930328</v>
+        <v>0.4112336327632385</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.461407530318915</v>
+        <v>0.500046</v>
       </c>
       <c r="N14">
-        <v>0.461407530318915</v>
+        <v>1.000092</v>
       </c>
       <c r="O14">
-        <v>0.01953304342673219</v>
+        <v>0.02009953378395692</v>
       </c>
       <c r="P14">
-        <v>0.01953304342673219</v>
+        <v>0.01521121714331422</v>
       </c>
       <c r="Q14">
-        <v>194.9716774407453</v>
+        <v>220.531721051928</v>
       </c>
       <c r="R14">
-        <v>194.9716774407453</v>
+        <v>1323.190326311568</v>
       </c>
       <c r="S14">
-        <v>0.007922142340254828</v>
+        <v>0.008125322770773699</v>
       </c>
       <c r="T14">
-        <v>0.007922142340254828</v>
+        <v>0.006255364084595559</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>422.558507673217</v>
+        <v>441.022868</v>
       </c>
       <c r="H15">
-        <v>422.558507673217</v>
+        <v>1323.068604</v>
       </c>
       <c r="I15">
-        <v>0.4055764463930328</v>
+        <v>0.4042542905775846</v>
       </c>
       <c r="J15">
-        <v>0.4055764463930328</v>
+        <v>0.4112336327632385</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.654092394347995</v>
+        <v>0.821983</v>
       </c>
       <c r="N15">
-        <v>0.654092394347995</v>
+        <v>2.465949</v>
       </c>
       <c r="O15">
-        <v>0.02769008805526827</v>
+        <v>0.03303991048491191</v>
       </c>
       <c r="P15">
-        <v>0.02769008805526827</v>
+        <v>0.03750663509291002</v>
       </c>
       <c r="Q15">
-        <v>276.3923060360901</v>
+        <v>362.513300107244</v>
       </c>
       <c r="R15">
-        <v>276.3923060360901</v>
+        <v>3262.619700965196</v>
       </c>
       <c r="S15">
-        <v>0.01123044751376587</v>
+        <v>0.01335652557382496</v>
       </c>
       <c r="T15">
-        <v>0.01123044751376587</v>
+        <v>0.01542398980198255</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>422.558507673217</v>
+        <v>441.022868</v>
       </c>
       <c r="H16">
-        <v>422.558507673217</v>
+        <v>1323.068604</v>
       </c>
       <c r="I16">
-        <v>0.4055764463930328</v>
+        <v>0.4042542905775846</v>
       </c>
       <c r="J16">
-        <v>0.4055764463930328</v>
+        <v>0.4112336327632385</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.8291232923892</v>
+        <v>7.086962666666667</v>
       </c>
       <c r="N16">
-        <v>6.8291232923892</v>
+        <v>21.260888</v>
       </c>
       <c r="O16">
-        <v>0.2891013975098061</v>
+        <v>0.2848630836849173</v>
       </c>
       <c r="P16">
-        <v>0.2891013975098061</v>
+        <v>0.3233742335981926</v>
       </c>
       <c r="Q16">
-        <v>2885.704147148387</v>
+        <v>3125.512600662262</v>
       </c>
       <c r="R16">
-        <v>2885.704147148387</v>
+        <v>28129.61340596035</v>
       </c>
       <c r="S16">
-        <v>0.1172527174492867</v>
+        <v>0.1151571238067893</v>
       </c>
       <c r="T16">
-        <v>0.1172527174492867</v>
+        <v>0.1329823608246128</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>422.558507673217</v>
+        <v>441.022868</v>
       </c>
       <c r="H17">
-        <v>422.558507673217</v>
+        <v>1323.068604</v>
       </c>
       <c r="I17">
-        <v>0.4055764463930328</v>
+        <v>0.4042542905775846</v>
       </c>
       <c r="J17">
-        <v>0.4055764463930328</v>
+        <v>0.4112336327632385</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.33955543897952</v>
+        <v>6.510773</v>
       </c>
       <c r="N17">
-        <v>6.33955543897952</v>
+        <v>19.532319</v>
       </c>
       <c r="O17">
-        <v>0.2683762261317538</v>
+        <v>0.2617029270770581</v>
       </c>
       <c r="P17">
-        <v>0.2683762261317538</v>
+        <v>0.2970830139841956</v>
       </c>
       <c r="Q17">
-        <v>2678.833085606812</v>
+        <v>2871.399781356964</v>
       </c>
       <c r="R17">
-        <v>2678.833085606812</v>
+        <v>25842.59803221268</v>
       </c>
       <c r="S17">
-        <v>0.1088470760908897</v>
+        <v>0.1057945311276134</v>
       </c>
       <c r="T17">
-        <v>0.1088470760908897</v>
+        <v>0.1221705270729727</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>422.558507673217</v>
+        <v>441.022868</v>
       </c>
       <c r="H18">
-        <v>422.558507673217</v>
+        <v>1323.068604</v>
       </c>
       <c r="I18">
-        <v>0.4055764463930328</v>
+        <v>0.4042542905775846</v>
       </c>
       <c r="J18">
-        <v>0.4055764463930328</v>
+        <v>0.4112336327632385</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.960635674751374</v>
+        <v>1.570313333333333</v>
       </c>
       <c r="N18">
-        <v>0.960635674751374</v>
+        <v>4.71094</v>
       </c>
       <c r="O18">
-        <v>0.04066716973435044</v>
+        <v>0.06311932481158002</v>
       </c>
       <c r="P18">
-        <v>0.04066716973435044</v>
+        <v>0.07165253925551318</v>
       </c>
       <c r="Q18">
-        <v>405.9247771405945</v>
+        <v>692.5440899253066</v>
       </c>
       <c r="R18">
-        <v>405.9247771405945</v>
+        <v>6232.89680932776</v>
       </c>
       <c r="S18">
-        <v>0.01649364618572015</v>
+        <v>0.02551625787344141</v>
       </c>
       <c r="T18">
-        <v>0.01649364618572015</v>
+        <v>0.02946593401475524</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>422.558507673217</v>
+        <v>441.022868</v>
       </c>
       <c r="H19">
-        <v>422.558507673217</v>
+        <v>1323.068604</v>
       </c>
       <c r="I19">
-        <v>0.4055764463930328</v>
+        <v>0.4042542905775846</v>
       </c>
       <c r="J19">
-        <v>0.4055764463930328</v>
+        <v>0.4112336327632385</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.377082177539499</v>
+        <v>8.3884095</v>
       </c>
       <c r="N19">
-        <v>8.377082177539499</v>
+        <v>16.776819</v>
       </c>
       <c r="O19">
-        <v>0.3546320751420892</v>
+        <v>0.3371752201575759</v>
       </c>
       <c r="P19">
-        <v>0.3546320751420892</v>
+        <v>0.2551723609258745</v>
       </c>
       <c r="Q19">
-        <v>3539.807343596994</v>
+        <v>3699.480415648446</v>
       </c>
       <c r="R19">
-        <v>3539.807343596994</v>
+        <v>22196.88249389068</v>
       </c>
       <c r="S19">
-        <v>0.1438304168131155</v>
+        <v>0.1363045294251417</v>
       </c>
       <c r="T19">
-        <v>0.1438304168131155</v>
+        <v>0.1049354569643196</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>508.059997080278</v>
+        <v>536.9901530000001</v>
       </c>
       <c r="H20">
-        <v>508.059997080278</v>
+        <v>1610.970459</v>
       </c>
       <c r="I20">
-        <v>0.4876417452932383</v>
+        <v>0.4922206740267346</v>
       </c>
       <c r="J20">
-        <v>0.4876417452932383</v>
+        <v>0.5007187322909461</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.461407530318915</v>
+        <v>0.500046</v>
       </c>
       <c r="N20">
-        <v>0.461407530318915</v>
+        <v>1.000092</v>
       </c>
       <c r="O20">
-        <v>0.01953304342673219</v>
+        <v>0.02009953378395692</v>
       </c>
       <c r="P20">
-        <v>0.01953304342673219</v>
+        <v>0.01521121714331422</v>
       </c>
       <c r="Q20">
-        <v>234.4227085066462</v>
+        <v>268.519778047038</v>
       </c>
       <c r="R20">
-        <v>234.4227085066462</v>
+        <v>1611.118668282228</v>
       </c>
       <c r="S20">
-        <v>0.0095251273875003</v>
+        <v>0.009893406066762402</v>
       </c>
       <c r="T20">
-        <v>0.0095251273875003</v>
+        <v>0.007616541364602603</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>508.059997080278</v>
+        <v>536.9901530000001</v>
       </c>
       <c r="H21">
-        <v>508.059997080278</v>
+        <v>1610.970459</v>
       </c>
       <c r="I21">
-        <v>0.4876417452932383</v>
+        <v>0.4922206740267346</v>
       </c>
       <c r="J21">
-        <v>0.4876417452932383</v>
+        <v>0.5007187322909461</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.654092394347995</v>
+        <v>0.821983</v>
       </c>
       <c r="N21">
-        <v>0.654092394347995</v>
+        <v>2.465949</v>
       </c>
       <c r="O21">
-        <v>0.02769008805526827</v>
+        <v>0.03303991048491191</v>
       </c>
       <c r="P21">
-        <v>0.02769008805526827</v>
+        <v>0.03750663509291002</v>
       </c>
       <c r="Q21">
-        <v>332.3181799626744</v>
+        <v>441.3967769333991</v>
       </c>
       <c r="R21">
-        <v>332.3181799626744</v>
+        <v>3972.570992400591</v>
       </c>
       <c r="S21">
-        <v>0.01350284286659447</v>
+        <v>0.01626292700866632</v>
       </c>
       <c r="T21">
-        <v>0.01350284286659447</v>
+        <v>0.01878027477622101</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>508.059997080278</v>
+        <v>536.9901530000001</v>
       </c>
       <c r="H22">
-        <v>508.059997080278</v>
+        <v>1610.970459</v>
       </c>
       <c r="I22">
-        <v>0.4876417452932383</v>
+        <v>0.4922206740267346</v>
       </c>
       <c r="J22">
-        <v>0.4876417452932383</v>
+        <v>0.5007187322909461</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.8291232923892</v>
+        <v>7.086962666666667</v>
       </c>
       <c r="N22">
-        <v>6.8291232923892</v>
+        <v>21.260888</v>
       </c>
       <c r="O22">
-        <v>0.2891013975098061</v>
+        <v>0.2848630836849173</v>
       </c>
       <c r="P22">
-        <v>0.2891013975098061</v>
+        <v>0.3233742335981926</v>
       </c>
       <c r="Q22">
-        <v>3469.604359992115</v>
+        <v>3805.629166678622</v>
       </c>
       <c r="R22">
-        <v>3469.604359992115</v>
+        <v>34250.6625001076</v>
       </c>
       <c r="S22">
-        <v>0.1409779100483961</v>
+        <v>0.1402154990567241</v>
       </c>
       <c r="T22">
-        <v>0.1409779100483961</v>
+        <v>0.1619195363028433</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>508.059997080278</v>
+        <v>536.9901530000001</v>
       </c>
       <c r="H23">
-        <v>508.059997080278</v>
+        <v>1610.970459</v>
       </c>
       <c r="I23">
-        <v>0.4876417452932383</v>
+        <v>0.4922206740267346</v>
       </c>
       <c r="J23">
-        <v>0.4876417452932383</v>
+        <v>0.5007187322909461</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.33955543897952</v>
+        <v>6.510773</v>
       </c>
       <c r="N23">
-        <v>6.33955543897952</v>
+        <v>19.532319</v>
       </c>
       <c r="O23">
-        <v>0.2683762261317538</v>
+        <v>0.2617029270770581</v>
       </c>
       <c r="P23">
-        <v>0.2683762261317538</v>
+        <v>0.2970830139841956</v>
       </c>
       <c r="Q23">
-        <v>3220.874517818195</v>
+        <v>3496.22098941827</v>
       </c>
       <c r="R23">
-        <v>3220.874517818195</v>
+        <v>31465.98890476442</v>
       </c>
       <c r="S23">
-        <v>0.1308714513061012</v>
+        <v>0.1288155911606389</v>
       </c>
       <c r="T23">
-        <v>0.1308714513061012</v>
+        <v>0.1487550301473398</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>508.059997080278</v>
+        <v>536.9901530000001</v>
       </c>
       <c r="H24">
-        <v>508.059997080278</v>
+        <v>1610.970459</v>
       </c>
       <c r="I24">
-        <v>0.4876417452932383</v>
+        <v>0.4922206740267346</v>
       </c>
       <c r="J24">
-        <v>0.4876417452932383</v>
+        <v>0.5007187322909461</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.960635674751374</v>
+        <v>1.570313333333333</v>
       </c>
       <c r="N24">
-        <v>0.960635674751374</v>
+        <v>4.71094</v>
       </c>
       <c r="O24">
-        <v>0.04066716973435044</v>
+        <v>0.06311932481158002</v>
       </c>
       <c r="P24">
-        <v>0.04066716973435044</v>
+        <v>0.07165253925551318</v>
       </c>
       <c r="Q24">
-        <v>488.0605581093939</v>
+        <v>843.2427971246067</v>
       </c>
       <c r="R24">
-        <v>488.0605581093939</v>
+        <v>7589.18517412146</v>
       </c>
       <c r="S24">
-        <v>0.01983100962539501</v>
+        <v>0.03106863660286831</v>
       </c>
       <c r="T24">
-        <v>0.01983100962539501</v>
+        <v>0.03587776862144781</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>508.059997080278</v>
+        <v>536.9901530000001</v>
       </c>
       <c r="H25">
-        <v>508.059997080278</v>
+        <v>1610.970459</v>
       </c>
       <c r="I25">
-        <v>0.4876417452932383</v>
+        <v>0.4922206740267346</v>
       </c>
       <c r="J25">
-        <v>0.4876417452932383</v>
+        <v>0.5007187322909461</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.377082177539499</v>
+        <v>8.3884095</v>
       </c>
       <c r="N25">
-        <v>8.377082177539499</v>
+        <v>16.776819</v>
       </c>
       <c r="O25">
-        <v>0.3546320751420892</v>
+        <v>0.3371752201575759</v>
       </c>
       <c r="P25">
-        <v>0.3546320751420892</v>
+        <v>0.2551723609258745</v>
       </c>
       <c r="Q25">
-        <v>4256.060346661967</v>
+        <v>4504.493300831654</v>
       </c>
       <c r="R25">
-        <v>4256.060346661967</v>
+        <v>27026.95980498992</v>
       </c>
       <c r="S25">
-        <v>0.1729334040592512</v>
+        <v>0.1659646141310747</v>
       </c>
       <c r="T25">
-        <v>0.1729334040592512</v>
+        <v>0.1277695810784917</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>29.4052307876608</v>
+        <v>29.47333466666667</v>
       </c>
       <c r="H26">
-        <v>29.4052307876608</v>
+        <v>88.42000400000001</v>
       </c>
       <c r="I26">
-        <v>0.02822347388979662</v>
+        <v>0.02701610927946045</v>
       </c>
       <c r="J26">
-        <v>0.02822347388979662</v>
+        <v>0.02748253517915091</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.461407530318915</v>
+        <v>0.500046</v>
       </c>
       <c r="N26">
-        <v>0.461407530318915</v>
+        <v>1.000092</v>
       </c>
       <c r="O26">
-        <v>0.01953304342673219</v>
+        <v>0.02009953378395692</v>
       </c>
       <c r="P26">
-        <v>0.01953304342673219</v>
+        <v>0.01521121714331422</v>
       </c>
       <c r="Q26">
-        <v>13.56779491619229</v>
+        <v>14.738023106728</v>
       </c>
       <c r="R26">
-        <v>13.56779491619229</v>
+        <v>88.428138640368</v>
       </c>
       <c r="S26">
-        <v>0.0005512903411426395</v>
+        <v>0.0005430112011735875</v>
       </c>
       <c r="T26">
-        <v>0.0005512903411426395</v>
+        <v>0.0004180428102588365</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>29.4052307876608</v>
+        <v>29.47333466666667</v>
       </c>
       <c r="H27">
-        <v>29.4052307876608</v>
+        <v>88.42000400000001</v>
       </c>
       <c r="I27">
-        <v>0.02822347388979662</v>
+        <v>0.02701610927946045</v>
       </c>
       <c r="J27">
-        <v>0.02822347388979662</v>
+        <v>0.02748253517915091</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.654092394347995</v>
+        <v>0.821983</v>
       </c>
       <c r="N27">
-        <v>0.654092394347995</v>
+        <v>2.465949</v>
       </c>
       <c r="O27">
-        <v>0.02769008805526827</v>
+        <v>0.03303991048491191</v>
       </c>
       <c r="P27">
-        <v>0.02769008805526827</v>
+        <v>0.03750663509291002</v>
       </c>
       <c r="Q27">
-        <v>19.23373781225643</v>
+        <v>24.22658004931067</v>
       </c>
       <c r="R27">
-        <v>19.23373781225643</v>
+        <v>218.039220443796</v>
       </c>
       <c r="S27">
-        <v>0.0007815104772340336</v>
+        <v>0.0008926098322439716</v>
       </c>
       <c r="T27">
-        <v>0.0007815104772340336</v>
+        <v>0.001030777418392475</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>29.4052307876608</v>
+        <v>29.47333466666667</v>
       </c>
       <c r="H28">
-        <v>29.4052307876608</v>
+        <v>88.42000400000001</v>
       </c>
       <c r="I28">
-        <v>0.02822347388979662</v>
+        <v>0.02701610927946045</v>
       </c>
       <c r="J28">
-        <v>0.02822347388979662</v>
+        <v>0.02748253517915091</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.8291232923892</v>
+        <v>7.086962666666667</v>
       </c>
       <c r="N28">
-        <v>6.8291232923892</v>
+        <v>21.260888</v>
       </c>
       <c r="O28">
-        <v>0.2891013975098061</v>
+        <v>0.2848630836849173</v>
       </c>
       <c r="P28">
-        <v>0.2891013975098061</v>
+        <v>0.3233742335981926</v>
       </c>
       <c r="Q28">
-        <v>200.8119464900944</v>
+        <v>208.8764224448392</v>
       </c>
       <c r="R28">
-        <v>200.8119464900944</v>
+        <v>1879.887802003552</v>
       </c>
       <c r="S28">
-        <v>0.008159445744121726</v>
+        <v>0.007695892198515813</v>
       </c>
       <c r="T28">
-        <v>0.008159445744121726</v>
+        <v>0.00888714375089329</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>29.4052307876608</v>
+        <v>29.47333466666667</v>
       </c>
       <c r="H29">
-        <v>29.4052307876608</v>
+        <v>88.42000400000001</v>
       </c>
       <c r="I29">
-        <v>0.02822347388979662</v>
+        <v>0.02701610927946045</v>
       </c>
       <c r="J29">
-        <v>0.02822347388979662</v>
+        <v>0.02748253517915091</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>6.33955543897952</v>
+        <v>6.510773</v>
       </c>
       <c r="N29">
-        <v>6.33955543897952</v>
+        <v>19.532319</v>
       </c>
       <c r="O29">
-        <v>0.2683762261317538</v>
+        <v>0.2617029270770581</v>
       </c>
       <c r="P29">
-        <v>0.2683762261317538</v>
+        <v>0.2970830139841956</v>
       </c>
       <c r="Q29">
-        <v>186.4160907743631</v>
+        <v>191.8941915676974</v>
       </c>
       <c r="R29">
-        <v>186.4160907743631</v>
+        <v>1727.047724109276</v>
       </c>
       <c r="S29">
-        <v>0.007574509410871708</v>
+        <v>0.007070194876668471</v>
       </c>
       <c r="T29">
-        <v>0.007574509410871708</v>
+        <v>0.008164594382948837</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>29.4052307876608</v>
+        <v>29.47333466666667</v>
       </c>
       <c r="H30">
-        <v>29.4052307876608</v>
+        <v>88.42000400000001</v>
       </c>
       <c r="I30">
-        <v>0.02822347388979662</v>
+        <v>0.02701610927946045</v>
       </c>
       <c r="J30">
-        <v>0.02822347388979662</v>
+        <v>0.02748253517915091</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.960635674751374</v>
+        <v>1.570313333333333</v>
       </c>
       <c r="N30">
-        <v>0.960635674751374</v>
+        <v>4.71094</v>
       </c>
       <c r="O30">
-        <v>0.04066716973435044</v>
+        <v>0.06311932481158002</v>
       </c>
       <c r="P30">
-        <v>0.04066716973435044</v>
+        <v>0.07165253925551318</v>
       </c>
       <c r="Q30">
-        <v>28.24771371892441</v>
+        <v>46.28237040486223</v>
       </c>
       <c r="R30">
-        <v>28.24771371892441</v>
+        <v>416.54133364376</v>
       </c>
       <c r="S30">
-        <v>0.001147768803169367</v>
+        <v>0.001705238576755405</v>
       </c>
       <c r="T30">
-        <v>0.001147768803169367</v>
+        <v>0.001969193430765132</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>29.4052307876608</v>
+        <v>29.47333466666667</v>
       </c>
       <c r="H31">
-        <v>29.4052307876608</v>
+        <v>88.42000400000001</v>
       </c>
       <c r="I31">
-        <v>0.02822347388979662</v>
+        <v>0.02701610927946045</v>
       </c>
       <c r="J31">
-        <v>0.02822347388979662</v>
+        <v>0.02748253517915091</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>8.377082177539499</v>
+        <v>8.3884095</v>
       </c>
       <c r="N31">
-        <v>8.377082177539499</v>
+        <v>16.776819</v>
       </c>
       <c r="O31">
-        <v>0.3546320751420892</v>
+        <v>0.3371752201575759</v>
       </c>
       <c r="P31">
-        <v>0.3546320751420892</v>
+        <v>0.2551723609258745</v>
       </c>
       <c r="Q31">
-        <v>246.330034757749</v>
+        <v>247.234400514546</v>
       </c>
       <c r="R31">
-        <v>246.330034757749</v>
+        <v>1483.406403087276</v>
       </c>
       <c r="S31">
-        <v>0.01000894911325715</v>
+        <v>0.009109162594103208</v>
       </c>
       <c r="T31">
-        <v>0.01000894911325715</v>
+        <v>0.00701278338589234</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>13.1773638181208</v>
+        <v>13.215904</v>
       </c>
       <c r="H32">
-        <v>13.1773638181208</v>
+        <v>26.431808</v>
       </c>
       <c r="I32">
-        <v>0.01264778319009646</v>
+        <v>0.01211407907279189</v>
       </c>
       <c r="J32">
-        <v>0.01264778319009646</v>
+        <v>0.008215483604915494</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.461407530318915</v>
+        <v>0.500046</v>
       </c>
       <c r="N32">
-        <v>0.461407530318915</v>
+        <v>1.000092</v>
       </c>
       <c r="O32">
-        <v>0.01953304342673219</v>
+        <v>0.02009953378395692</v>
       </c>
       <c r="P32">
-        <v>0.01953304342673219</v>
+        <v>0.01521121714331422</v>
       </c>
       <c r="Q32">
-        <v>6.080134895432947</v>
+        <v>6.608559931584</v>
       </c>
       <c r="R32">
-        <v>6.080134895432947</v>
+        <v>26.434239726336</v>
       </c>
       <c r="S32">
-        <v>0.0002470496983040475</v>
+        <v>0.0002434873415851062</v>
       </c>
       <c r="T32">
-        <v>0.0002470496983040475</v>
+        <v>0.0001249675050517075</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>13.1773638181208</v>
+        <v>13.215904</v>
       </c>
       <c r="H33">
-        <v>13.1773638181208</v>
+        <v>26.431808</v>
       </c>
       <c r="I33">
-        <v>0.01264778319009646</v>
+        <v>0.01211407907279189</v>
       </c>
       <c r="J33">
-        <v>0.01264778319009646</v>
+        <v>0.008215483604915494</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.654092394347995</v>
+        <v>0.821983</v>
       </c>
       <c r="N33">
-        <v>0.654092394347995</v>
+        <v>2.465949</v>
       </c>
       <c r="O33">
-        <v>0.02769008805526827</v>
+        <v>0.03303991048491191</v>
       </c>
       <c r="P33">
-        <v>0.02769008805526827</v>
+        <v>0.03750663509291002</v>
       </c>
       <c r="Q33">
-        <v>8.619213450989271</v>
+        <v>10.863248417632</v>
       </c>
       <c r="R33">
-        <v>8.619213450989271</v>
+        <v>65.179490505792</v>
       </c>
       <c r="S33">
-        <v>0.0003502182302377129</v>
+        <v>0.0004002480881721889</v>
       </c>
       <c r="T33">
-        <v>0.0003502182302377129</v>
+        <v>0.0003081351456813504</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>13.1773638181208</v>
+        <v>13.215904</v>
       </c>
       <c r="H34">
-        <v>13.1773638181208</v>
+        <v>26.431808</v>
       </c>
       <c r="I34">
-        <v>0.01264778319009646</v>
+        <v>0.01211407907279189</v>
       </c>
       <c r="J34">
-        <v>0.01264778319009646</v>
+        <v>0.008215483604915494</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>6.8291232923892</v>
+        <v>7.086962666666667</v>
       </c>
       <c r="N34">
-        <v>6.8291232923892</v>
+        <v>21.260888</v>
       </c>
       <c r="O34">
-        <v>0.2891013975098061</v>
+        <v>0.2848630836849173</v>
       </c>
       <c r="P34">
-        <v>0.2891013975098061</v>
+        <v>0.3233742335981926</v>
       </c>
       <c r="Q34">
-        <v>89.98984218261543</v>
+        <v>93.66061825425068</v>
       </c>
       <c r="R34">
-        <v>89.98984218261543</v>
+        <v>561.963709525504</v>
       </c>
       <c r="S34">
-        <v>0.00365649179565792</v>
+        <v>0.003450853920678422</v>
       </c>
       <c r="T34">
-        <v>0.00365649179565792</v>
+        <v>0.002656675714378064</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>13.1773638181208</v>
+        <v>13.215904</v>
       </c>
       <c r="H35">
-        <v>13.1773638181208</v>
+        <v>26.431808</v>
       </c>
       <c r="I35">
-        <v>0.01264778319009646</v>
+        <v>0.01211407907279189</v>
       </c>
       <c r="J35">
-        <v>0.01264778319009646</v>
+        <v>0.008215483604915494</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>6.33955543897952</v>
+        <v>6.510773</v>
       </c>
       <c r="N35">
-        <v>6.33955543897952</v>
+        <v>19.532319</v>
       </c>
       <c r="O35">
-        <v>0.2683762261317538</v>
+        <v>0.2617029270770581</v>
       </c>
       <c r="P35">
-        <v>0.2683762261317538</v>
+        <v>0.2970830139841956</v>
       </c>
       <c r="Q35">
-        <v>83.53862846457965</v>
+        <v>86.04575093379201</v>
       </c>
       <c r="R35">
-        <v>83.53862846457965</v>
+        <v>516.274505602752</v>
       </c>
       <c r="S35">
-        <v>0.003394364321490722</v>
+        <v>0.003170289952192572</v>
       </c>
       <c r="T35">
-        <v>0.003394364321490722</v>
+        <v>0.002440680630686039</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>13.1773638181208</v>
+        <v>13.215904</v>
       </c>
       <c r="H36">
-        <v>13.1773638181208</v>
+        <v>26.431808</v>
       </c>
       <c r="I36">
-        <v>0.01264778319009646</v>
+        <v>0.01211407907279189</v>
       </c>
       <c r="J36">
-        <v>0.01264778319009646</v>
+        <v>0.008215483604915494</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.960635674751374</v>
+        <v>1.570313333333333</v>
       </c>
       <c r="N36">
-        <v>0.960635674751374</v>
+        <v>4.71094</v>
       </c>
       <c r="O36">
-        <v>0.04066716973435044</v>
+        <v>0.06311932481158002</v>
       </c>
       <c r="P36">
-        <v>0.04066716973435044</v>
+        <v>0.07165253925551318</v>
       </c>
       <c r="Q36">
-        <v>12.65864578286482</v>
+        <v>20.75311026325333</v>
       </c>
       <c r="R36">
-        <v>12.65864578286482</v>
+        <v>124.51866157952</v>
       </c>
       <c r="S36">
-        <v>0.0005143495457549171</v>
+        <v>0.0007646324917887157</v>
       </c>
       <c r="T36">
-        <v>0.0005143495457549171</v>
+        <v>0.0005886602615042323</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>13.1773638181208</v>
+        <v>13.215904</v>
       </c>
       <c r="H37">
-        <v>13.1773638181208</v>
+        <v>26.431808</v>
       </c>
       <c r="I37">
-        <v>0.01264778319009646</v>
+        <v>0.01211407907279189</v>
       </c>
       <c r="J37">
-        <v>0.01264778319009646</v>
+        <v>0.008215483604915494</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>8.377082177539499</v>
+        <v>8.3884095</v>
       </c>
       <c r="N37">
-        <v>8.377082177539499</v>
+        <v>16.776819</v>
       </c>
       <c r="O37">
-        <v>0.3546320751420892</v>
+        <v>0.3371752201575759</v>
       </c>
       <c r="P37">
-        <v>0.3546320751420892</v>
+        <v>0.2551723609258745</v>
       </c>
       <c r="Q37">
-        <v>110.3878595877336</v>
+        <v>110.860414664688</v>
       </c>
       <c r="R37">
-        <v>110.3878595877336</v>
+        <v>443.441658658752</v>
       </c>
       <c r="S37">
-        <v>0.004485309598651141</v>
+        <v>0.00408456727837489</v>
       </c>
       <c r="T37">
-        <v>0.004485309598651141</v>
+        <v>0.002096364347614101</v>
       </c>
     </row>
   </sheetData>
